--- a/毕业设计文档/乐享影视数据库设计文档.xlsx
+++ b/毕业设计文档/乐享影视数据库设计文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
   <si>
     <t>影视作品表(t_film)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,50 @@
   </si>
   <si>
     <t>评论时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filemCreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminCreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentsLikeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论点赞表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标记想看作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品评分详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -443,27 +487,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,14 +503,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -761,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -773,25 +809,25 @@
     <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1005,109 +1041,123 @@
         <v>41</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1125,196 +1175,272 @@
         <v>71</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
     <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A57:D57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
